--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmdc\Google Drive\PPE\Cenergia - compartilhadas\Projeto EPS (2019-2020)\Variáveis EPS Brasil\Eduardo_Elec_High_2020_02_02\revisão 26 de abril de 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d08 elec\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800F07C9-E371-4787-929F-035689DDEB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE8D77-A7E5-4EA6-988C-35AE53A42405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4248" yWindow="2436" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Source:</t>
   </si>
@@ -164,6 +167,12 @@
   </si>
   <si>
     <t>Hydro is not a peaker type, but can provide flexibility</t>
+  </si>
+  <si>
+    <t>BR 2024 Update</t>
+  </si>
+  <si>
+    <t>Using [eps-brazil-2.1.1] values in both tables</t>
   </si>
 </sst>
 </file>
@@ -207,15 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,9 +240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,9 +280,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,26 +315,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,26 +350,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,9 +552,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
@@ -597,22 +566,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -620,32 +586,29 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -653,56 +616,63 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -718,20 +688,22 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2">
@@ -803,7 +775,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -823,7 +795,6 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <f>B2</f>
         <v>1</v>
       </c>
     </row>
@@ -832,7 +803,6 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <f>B6</f>
         <v>0</v>
       </c>
     </row>
@@ -841,7 +811,6 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <f>B11</f>
         <v>1</v>
       </c>
     </row>
@@ -850,7 +819,6 @@
         <v>40</v>
       </c>
       <c r="B16">
-        <f>B11</f>
         <v>1</v>
       </c>
     </row>
@@ -859,7 +827,6 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <f>B9</f>
         <v>1</v>
       </c>
     </row>
@@ -875,20 +842,22 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2">
@@ -980,7 +949,6 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <f>B2</f>
         <v>1</v>
       </c>
     </row>
@@ -989,7 +957,6 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <f>B6</f>
         <v>0</v>
       </c>
     </row>
@@ -998,7 +965,6 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <f>B11</f>
         <v>1</v>
       </c>
     </row>
@@ -1007,7 +973,6 @@
         <v>40</v>
       </c>
       <c r="B16">
-        <f>B11</f>
         <v>1</v>
       </c>
     </row>
@@ -1016,7 +981,6 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <f>B9</f>
         <v>1</v>
       </c>
     </row>
